--- a/Code/Results/Cases/Case_4_142/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_142/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9486638270336315</v>
+        <v>1.036645423468762</v>
       </c>
       <c r="D2">
-        <v>0.9760166516043101</v>
+        <v>1.036688405373256</v>
       </c>
       <c r="E2">
-        <v>0.9572322869633905</v>
+        <v>1.040294338750955</v>
       </c>
       <c r="F2">
-        <v>0.9225733493318391</v>
+        <v>1.035334893408444</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.024356538488652</v>
+        <v>1.033236240024902</v>
       </c>
       <c r="J2">
-        <v>0.9724964523501451</v>
+        <v>1.041752610746729</v>
       </c>
       <c r="K2">
-        <v>0.9878205429552297</v>
+        <v>1.03948143130787</v>
       </c>
       <c r="L2">
-        <v>0.9693214480578304</v>
+        <v>1.043077095115534</v>
       </c>
       <c r="M2">
-        <v>0.9352282453397499</v>
+        <v>1.038131794151826</v>
       </c>
       <c r="N2">
-        <v>0.9738775088593846</v>
+        <v>1.043232018944731</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>0.9645795293091624</v>
+        <v>1.039020264665833</v>
       </c>
       <c r="D3">
-        <v>0.9881956779336676</v>
+        <v>1.038463267819327</v>
       </c>
       <c r="E3">
-        <v>0.9724970525954196</v>
+        <v>1.042620401078498</v>
       </c>
       <c r="F3">
-        <v>0.9420932971431606</v>
+        <v>1.038359239604055</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.030016931093661</v>
+        <v>1.033891104299029</v>
       </c>
       <c r="J3">
-        <v>0.9860846832813338</v>
+        <v>1.043764338209669</v>
       </c>
       <c r="K3">
-        <v>0.9989818591297551</v>
+        <v>1.041063389808965</v>
       </c>
       <c r="L3">
-        <v>0.9834943689617588</v>
+        <v>1.045209568271824</v>
       </c>
       <c r="M3">
-        <v>0.9535249472818051</v>
+        <v>1.040959636942425</v>
       </c>
       <c r="N3">
-        <v>0.9874850366370873</v>
+        <v>1.045246603291369</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>0.9741677792294492</v>
+        <v>1.040545882555764</v>
       </c>
       <c r="D4">
-        <v>0.9955325940009337</v>
+        <v>1.039601999471175</v>
       </c>
       <c r="E4">
-        <v>0.9817004615628309</v>
+        <v>1.044114900361303</v>
       </c>
       <c r="F4">
-        <v>0.9538336959728976</v>
+        <v>1.040303805237578</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.03340103785772</v>
+        <v>1.034308750621779</v>
       </c>
       <c r="J4">
-        <v>0.9942561816530114</v>
+        <v>1.045055070990584</v>
       </c>
       <c r="K4">
-        <v>1.005685237404742</v>
+        <v>1.042076889080467</v>
       </c>
       <c r="L4">
-        <v>0.9920248814571031</v>
+        <v>1.046578515052757</v>
       </c>
       <c r="M4">
-        <v>0.9645232056806743</v>
+        <v>1.042776934555341</v>
       </c>
       <c r="N4">
-        <v>0.9956681394737367</v>
+        <v>1.046539169060883</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>0.9780506509488966</v>
+        <v>1.041184667201573</v>
       </c>
       <c r="D5">
-        <v>0.9985032571478599</v>
+        <v>1.040078442291129</v>
       </c>
       <c r="E5">
-        <v>0.9854290293448339</v>
+        <v>1.044740706839957</v>
       </c>
       <c r="F5">
-        <v>0.9585850575323054</v>
+        <v>1.041118419048466</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034765130462804</v>
+        <v>1.034482891271994</v>
       </c>
       <c r="J5">
-        <v>0.9975617937795892</v>
+        <v>1.045595120305858</v>
       </c>
       <c r="K5">
-        <v>1.008394725523751</v>
+        <v>1.042500583867387</v>
       </c>
       <c r="L5">
-        <v>0.9954774479720276</v>
+        <v>1.047151467530324</v>
       </c>
       <c r="M5">
-        <v>0.968972524380192</v>
+        <v>1.043538012476241</v>
       </c>
       <c r="N5">
-        <v>0.9989784459486933</v>
+        <v>1.047079985308129</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>0.9786944712257059</v>
+        <v>1.041291772185177</v>
       </c>
       <c r="D6">
-        <v>0.9989957824550681</v>
+        <v>1.040158306810932</v>
       </c>
       <c r="E6">
-        <v>0.9860473498372285</v>
+        <v>1.044845638769174</v>
       </c>
       <c r="F6">
-        <v>0.9593727412797836</v>
+        <v>1.041255029736353</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034990934529319</v>
+        <v>1.034512046545569</v>
       </c>
       <c r="J6">
-        <v>0.9981096897160655</v>
+        <v>1.045685647591342</v>
       </c>
       <c r="K6">
-        <v>1.008843680609391</v>
+        <v>1.042571585817721</v>
       </c>
       <c r="L6">
-        <v>0.9960498013462658</v>
+        <v>1.047247520749457</v>
       </c>
       <c r="M6">
-        <v>0.9697100314513584</v>
+        <v>1.043665632226443</v>
       </c>
       <c r="N6">
-        <v>0.9995271199602441</v>
+        <v>1.047170641152742</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>0.9742202185558457</v>
+        <v>1.040554428101116</v>
       </c>
       <c r="D7">
-        <v>0.9955727162364595</v>
+        <v>1.039608374618814</v>
       </c>
       <c r="E7">
-        <v>0.9817508110724852</v>
+        <v>1.044123272085813</v>
       </c>
       <c r="F7">
-        <v>0.9538978748675351</v>
+        <v>1.040314701358298</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.03341948575941</v>
+        <v>1.034311083119337</v>
       </c>
       <c r="J7">
-        <v>0.9943008390326743</v>
+        <v>1.045062297198524</v>
       </c>
       <c r="K7">
-        <v>1.005721850468398</v>
+        <v>1.04208255980329</v>
       </c>
       <c r="L7">
-        <v>0.9920715173156407</v>
+        <v>1.046586180825256</v>
       </c>
       <c r="M7">
-        <v>0.9645833116892994</v>
+        <v>1.042787115459999</v>
       </c>
       <c r="N7">
-        <v>0.9957128602720009</v>
+        <v>1.046546405530866</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.954204677373068</v>
+        <v>1.037450341448225</v>
       </c>
       <c r="D8">
-        <v>0.9802563502310069</v>
+        <v>1.037290270707987</v>
       </c>
       <c r="E8">
-        <v>0.9625447860548212</v>
+        <v>1.041082678206691</v>
       </c>
       <c r="F8">
-        <v>0.9293742689446144</v>
+        <v>1.036359601760893</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.026332681625048</v>
+        <v>1.033458829316469</v>
       </c>
       <c r="J8">
-        <v>0.9772301701924471</v>
+        <v>1.042434793038949</v>
       </c>
       <c r="K8">
-        <v>0.9917105742901452</v>
+        <v>1.040018187638834</v>
       </c>
       <c r="L8">
-        <v>0.9742572070379245</v>
+        <v>1.043800067923118</v>
       </c>
       <c r="M8">
-        <v>0.9416042510077957</v>
+        <v>1.039090114869248</v>
       </c>
       <c r="N8">
-        <v>0.9786179491239874</v>
+        <v>1.043915170014007</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9121103236605054</v>
+        <v>1.031892914208762</v>
       </c>
       <c r="D9">
-        <v>0.9480746808950876</v>
+        <v>1.033128825304128</v>
       </c>
       <c r="E9">
-        <v>0.9222331884022763</v>
+        <v>1.035640645218081</v>
       </c>
       <c r="F9">
-        <v>0.8775089852577681</v>
+        <v>1.029291476428755</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.011203576809609</v>
+        <v>1.031909400600137</v>
       </c>
       <c r="J9">
-        <v>0.941200021643716</v>
+        <v>1.037718062338713</v>
       </c>
       <c r="K9">
-        <v>0.9620704090000043</v>
+        <v>1.036300797757999</v>
       </c>
       <c r="L9">
-        <v>0.9367279836841041</v>
+        <v>1.038804395703065</v>
       </c>
       <c r="M9">
-        <v>0.8929603748598162</v>
+        <v>1.032476094703013</v>
       </c>
       <c r="N9">
-        <v>0.9425366336316016</v>
+        <v>1.03919174101516</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.876347715850482</v>
+        <v>1.028124919526673</v>
       </c>
       <c r="D10">
-        <v>0.920828543802918</v>
+        <v>1.030299884804251</v>
       </c>
       <c r="E10">
-        <v>0.8880763147207191</v>
+        <v>1.031952093247566</v>
       </c>
       <c r="F10">
-        <v>0.832933676366218</v>
+        <v>1.02450752621088</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>0.9982046982071483</v>
+        <v>1.030843027905995</v>
       </c>
       <c r="J10">
-        <v>0.9104995757114154</v>
+        <v>1.034511607118213</v>
       </c>
       <c r="K10">
-        <v>0.936791232527833</v>
+        <v>1.033765973609437</v>
       </c>
       <c r="L10">
-        <v>0.9048103058478014</v>
+        <v>1.035412217133781</v>
       </c>
       <c r="M10">
-        <v>0.8511550770521167</v>
+        <v>1.027994694907158</v>
       </c>
       <c r="N10">
-        <v>0.9117925895446866</v>
+        <v>1.03598073226046</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.8576076127578832</v>
+        <v>1.026477443597654</v>
       </c>
       <c r="D11">
-        <v>0.9066059001434789</v>
+        <v>1.029061253280891</v>
       </c>
       <c r="E11">
-        <v>0.8702134385013012</v>
+        <v>1.030339647589795</v>
       </c>
       <c r="F11">
-        <v>0.8093012061793053</v>
+        <v>1.022417728059009</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>0.991365623176551</v>
+        <v>1.030373034026487</v>
       </c>
       <c r="J11">
-        <v>0.8943916161688666</v>
+        <v>1.033107646084166</v>
       </c>
       <c r="K11">
-        <v>0.9235337335182818</v>
+        <v>1.032654271977982</v>
       </c>
       <c r="L11">
-        <v>0.888082164044334</v>
+        <v>1.033927862639007</v>
       </c>
       <c r="M11">
-        <v>0.8290096237402751</v>
+        <v>1.02603592463209</v>
       </c>
       <c r="N11">
-        <v>0.8956617548519787</v>
+        <v>1.034574777440709</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.8499044622814357</v>
+        <v>1.025863025174161</v>
       </c>
       <c r="D12">
-        <v>0.9007729427287673</v>
+        <v>1.028599052780142</v>
       </c>
       <c r="E12">
-        <v>0.8628783341886569</v>
+        <v>1.029738338805551</v>
       </c>
       <c r="F12">
-        <v>0.7995185815174896</v>
+        <v>1.021638622784307</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>0.9885516002089954</v>
+        <v>1.030197190534821</v>
       </c>
       <c r="J12">
-        <v>0.8877674861830935</v>
+        <v>1.032583744057222</v>
       </c>
       <c r="K12">
-        <v>0.9180847190741108</v>
+        <v>1.032239157721607</v>
       </c>
       <c r="L12">
-        <v>0.8812063883688144</v>
+        <v>1.03337410022579</v>
       </c>
       <c r="M12">
-        <v>0.8198487114462506</v>
+        <v>1.025305497808029</v>
       </c>
       <c r="N12">
-        <v>0.8890282178418273</v>
+        <v>1.034050131412795</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.8515969904533084</v>
+        <v>1.025994933244908</v>
       </c>
       <c r="D13">
-        <v>0.9020538446697314</v>
+        <v>1.028698293198765</v>
       </c>
       <c r="E13">
-        <v>0.8644896167241514</v>
+        <v>1.029867430337293</v>
       </c>
       <c r="F13">
-        <v>0.8016717442922022</v>
+        <v>1.02180587477639</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>0.9891699873772586</v>
+        <v>1.030234967342141</v>
       </c>
       <c r="J13">
-        <v>0.8892230608925553</v>
+        <v>1.032696232999175</v>
       </c>
       <c r="K13">
-        <v>0.9192818973825507</v>
+        <v>1.032328300706567</v>
       </c>
       <c r="L13">
-        <v>0.8827170938360509</v>
+        <v>1.033492994304166</v>
       </c>
       <c r="M13">
-        <v>0.8218646741150267</v>
+        <v>1.025462307614007</v>
       </c>
       <c r="N13">
-        <v>0.8904858596343334</v>
+        <v>1.034162780101947</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.8569882710398596</v>
+        <v>1.02642670650191</v>
       </c>
       <c r="D14">
-        <v>0.9061366223579571</v>
+        <v>1.029023091207208</v>
       </c>
       <c r="E14">
-        <v>0.8696235252698022</v>
+        <v>1.030289992127255</v>
       </c>
       <c r="F14">
-        <v>0.8085162518998928</v>
+        <v>1.022353385985458</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>0.9911394170501571</v>
+        <v>1.030358524755108</v>
       </c>
       <c r="J14">
-        <v>0.8938590855707026</v>
+        <v>1.033064389738978</v>
       </c>
       <c r="K14">
-        <v>0.9230955995410353</v>
+        <v>1.032620003300524</v>
       </c>
       <c r="L14">
-        <v>0.8875293313434218</v>
+        <v>1.033882138013108</v>
       </c>
       <c r="M14">
-        <v>0.8282744052204575</v>
+        <v>1.025975606120523</v>
       </c>
       <c r="N14">
-        <v>0.8951284679992831</v>
+        <v>1.03453145966655</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.8602004676327829</v>
+        <v>1.026692406124531</v>
       </c>
       <c r="D15">
-        <v>0.9085710740518999</v>
+        <v>1.029222927490947</v>
       </c>
       <c r="E15">
-        <v>0.8726833989002007</v>
+        <v>1.030550029317333</v>
       </c>
       <c r="F15">
-        <v>0.8125845050226621</v>
+        <v>1.022690343251967</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>0.9923125280101968</v>
+        <v>1.030434483843625</v>
       </c>
       <c r="J15">
-        <v>0.8966209253934508</v>
+        <v>1.03329090190617</v>
       </c>
       <c r="K15">
-        <v>0.9253680033530872</v>
+        <v>1.032799440380375</v>
       </c>
       <c r="L15">
-        <v>0.8903966003929527</v>
+        <v>1.034121581041938</v>
       </c>
       <c r="M15">
-        <v>0.8320851549493096</v>
+        <v>1.026291485157247</v>
       </c>
       <c r="N15">
-        <v>0.8978942299513673</v>
+        <v>1.034758293507</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.049999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.8775054649288763</v>
+        <v>1.0282339149109</v>
       </c>
       <c r="D16">
-        <v>0.9217085929983689</v>
+        <v>1.030381795180968</v>
       </c>
       <c r="E16">
-        <v>0.8891806970141357</v>
+        <v>1.032058777340229</v>
       </c>
       <c r="F16">
-        <v>0.834386675310773</v>
+        <v>1.024645824061635</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>0.998626767937205</v>
+        <v>1.030874043735988</v>
       </c>
       <c r="J16">
-        <v>0.9114943305393611</v>
+        <v>1.034604449694778</v>
       </c>
       <c r="K16">
-        <v>0.9376102006072405</v>
+        <v>1.033839451345219</v>
       </c>
       <c r="L16">
-        <v>0.9058437560790834</v>
+        <v>1.035510395488268</v>
       </c>
       <c r="M16">
-        <v>0.8525172134140632</v>
+        <v>1.028124297799901</v>
       </c>
       <c r="N16">
-        <v>0.912788757038588</v>
+        <v>1.036073706684134</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.8873626860462714</v>
+        <v>1.029196545840754</v>
       </c>
       <c r="D17">
-        <v>0.9292073671601569</v>
+        <v>1.031105015993786</v>
       </c>
       <c r="E17">
-        <v>0.8985873649673314</v>
+        <v>1.033001029371601</v>
       </c>
       <c r="F17">
-        <v>0.8467281658588295</v>
+        <v>1.025867465461939</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.00221755275522</v>
+        <v>1.031147540610749</v>
       </c>
       <c r="J17">
-        <v>0.9199616967339732</v>
+        <v>1.035424190849806</v>
       </c>
       <c r="K17">
-        <v>0.9445819869289915</v>
+        <v>1.034488004656033</v>
       </c>
       <c r="L17">
-        <v>0.9146424379127569</v>
+        <v>1.036377354583811</v>
       </c>
       <c r="M17">
-        <v>0.8640889666244603</v>
+        <v>1.029269002391709</v>
       </c>
       <c r="N17">
-        <v>0.9212681478644168</v>
+        <v>1.036894611965627</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.8928207019426906</v>
+        <v>1.029756502819998</v>
       </c>
       <c r="D18">
-        <v>0.9333637925151309</v>
+        <v>1.031525542656419</v>
       </c>
       <c r="E18">
-        <v>0.9037988110432964</v>
+        <v>1.033549160363076</v>
       </c>
       <c r="F18">
-        <v>0.8535403659382902</v>
+        <v>1.026578268516091</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.004203353647616</v>
+        <v>1.031306272861843</v>
       </c>
       <c r="J18">
-        <v>0.9246483796076594</v>
+        <v>1.035900837176976</v>
       </c>
       <c r="K18">
-        <v>0.94844123168247</v>
+        <v>1.034864937898271</v>
       </c>
       <c r="L18">
-        <v>0.9195140346036613</v>
+        <v>1.036881545020283</v>
       </c>
       <c r="M18">
-        <v>0.8704775984566649</v>
+        <v>1.0299349311986</v>
       </c>
       <c r="N18">
-        <v>0.9259614863653539</v>
+        <v>1.037371935185254</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.8946372636541728</v>
+        <v>1.029947176735989</v>
       </c>
       <c r="D19">
-        <v>0.9347477888982521</v>
+        <v>1.031668710055397</v>
       </c>
       <c r="E19">
-        <v>0.9055337617880826</v>
+        <v>1.033735812124473</v>
       </c>
       <c r="F19">
-        <v>0.8558044688804872</v>
+        <v>1.026820338783601</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.004863837779441</v>
+        <v>1.03136026263661</v>
       </c>
       <c r="J19">
-        <v>0.9262079197949645</v>
+        <v>1.036063109891777</v>
       </c>
       <c r="K19">
-        <v>0.9497254597366688</v>
+        <v>1.03499323401338</v>
       </c>
       <c r="L19">
-        <v>0.9211353553505204</v>
+        <v>1.037053210096887</v>
       </c>
       <c r="M19">
-        <v>0.8726010896977043</v>
+        <v>1.030161700626133</v>
       </c>
       <c r="N19">
-        <v>0.9275232412786067</v>
+        <v>1.037534438345923</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.8863365090196045</v>
+        <v>1.029093423429009</v>
       </c>
       <c r="D20">
-        <v>0.9284262367894145</v>
+        <v>1.031027557788461</v>
       </c>
       <c r="E20">
-        <v>0.8976077759728515</v>
+        <v>1.032900087124858</v>
       </c>
       <c r="F20">
-        <v>0.8454457400628567</v>
+        <v>1.025736577697579</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.001843988716893</v>
+        <v>1.031118279294255</v>
       </c>
       <c r="J20">
-        <v>0.9190803938494738</v>
+        <v>1.035336395519551</v>
       </c>
       <c r="K20">
-        <v>0.9438562997660774</v>
+        <v>1.034418561802679</v>
       </c>
       <c r="L20">
-        <v>0.9137264866273523</v>
+        <v>1.036284492956282</v>
       </c>
       <c r="M20">
-        <v>0.862886372814869</v>
+        <v>1.029146369003636</v>
       </c>
       <c r="N20">
-        <v>0.9203855934287347</v>
+        <v>1.036806691955933</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.8554243073184278</v>
+        <v>1.026299628964464</v>
       </c>
       <c r="D21">
-        <v>0.9049518319056987</v>
+        <v>1.028927505252086</v>
       </c>
       <c r="E21">
-        <v>0.868134000717538</v>
+        <v>1.030165624411772</v>
       </c>
       <c r="F21">
-        <v>0.8065328781359142</v>
+        <v>1.022192237456771</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>0.9905681626044623</v>
+        <v>1.030322175374072</v>
       </c>
       <c r="J21">
-        <v>0.8925142921647337</v>
+        <v>1.032956043833949</v>
       </c>
       <c r="K21">
-        <v>0.9219892398741467</v>
+        <v>1.032534164787485</v>
       </c>
       <c r="L21">
-        <v>0.8861333253232843</v>
+        <v>1.03376761195321</v>
       </c>
       <c r="M21">
-        <v>0.8264168135879101</v>
+        <v>1.025824532089398</v>
       </c>
       <c r="N21">
-        <v>0.8937817648324277</v>
+        <v>1.034422959897908</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.8313378922513045</v>
+        <v>1.024528711956718</v>
       </c>
       <c r="D22">
-        <v>0.8867498089849647</v>
+        <v>1.02759483510967</v>
       </c>
       <c r="E22">
-        <v>0.8452172538674987</v>
+        <v>1.02843257924392</v>
       </c>
       <c r="F22">
-        <v>0.7757468456852624</v>
+        <v>1.01994715973884</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>0.9817663419326417</v>
+        <v>1.02981428940944</v>
       </c>
       <c r="J22">
-        <v>0.8717960823406421</v>
+        <v>1.031445450503807</v>
       </c>
       <c r="K22">
-        <v>0.9049564961743716</v>
+        <v>1.031336733257657</v>
       </c>
       <c r="L22">
-        <v>0.8646360656729276</v>
+        <v>1.032171183561837</v>
       </c>
       <c r="M22">
-        <v>0.797607403741011</v>
+        <v>1.023719405223801</v>
       </c>
       <c r="N22">
-        <v>0.8730341327739741</v>
+        <v>1.032910221351969</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.8447088007234498</v>
+        <v>1.025468896609652</v>
       </c>
       <c r="D23">
-        <v>0.8968434554092111</v>
+        <v>1.028302494295541</v>
       </c>
       <c r="E23">
-        <v>0.857933421844932</v>
+        <v>1.029352632482194</v>
       </c>
       <c r="F23">
-        <v>0.7928951115990102</v>
+        <v>1.021138929694556</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>0.9866530526877247</v>
+        <v>1.03008423494428</v>
       </c>
       <c r="J23">
-        <v>0.8832987952158334</v>
+        <v>1.032247593845893</v>
       </c>
       <c r="K23">
-        <v>0.9144100076471582</v>
+        <v>1.031972732432392</v>
       </c>
       <c r="L23">
-        <v>0.8765690192332828</v>
+        <v>1.033018829970796</v>
       </c>
       <c r="M23">
-        <v>0.8136486651470204</v>
+        <v>1.024836977529632</v>
       </c>
       <c r="N23">
-        <v>0.8845531808208279</v>
+        <v>1.033713503829609</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.8868010794649573</v>
+        <v>1.029140024729226</v>
       </c>
       <c r="D24">
-        <v>0.9287798565335886</v>
+        <v>1.031062561879764</v>
       </c>
       <c r="E24">
-        <v>0.8980512460554461</v>
+        <v>1.032945703115043</v>
       </c>
       <c r="F24">
-        <v>0.8460263853230187</v>
+        <v>1.025795725675636</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.002013116263629</v>
+        <v>1.031131503675116</v>
       </c>
       <c r="J24">
-        <v>0.9194793824994519</v>
+        <v>1.035376071065173</v>
       </c>
       <c r="K24">
-        <v>0.9441848361087459</v>
+        <v>1.034449944228636</v>
       </c>
       <c r="L24">
-        <v>0.9141411567083633</v>
+        <v>1.036326457735144</v>
       </c>
       <c r="M24">
-        <v>0.8634308685134369</v>
+        <v>1.029201787179448</v>
       </c>
       <c r="N24">
-        <v>0.9207851486883605</v>
+        <v>1.036846423845381</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9240419595939025</v>
+        <v>1.033340445323225</v>
       </c>
       <c r="D25">
-        <v>0.9571879995453998</v>
+        <v>1.034214057275931</v>
       </c>
       <c r="E25">
-        <v>0.9336481088976748</v>
+        <v>1.037057912563369</v>
       </c>
       <c r="F25">
-        <v>0.8922628618948657</v>
+        <v>1.031131012683623</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.015515907750177</v>
+        <v>1.032315751917771</v>
       </c>
       <c r="J25">
-        <v>0.9514269647709421</v>
+        <v>1.038948099021789</v>
       </c>
       <c r="K25">
-        <v>0.9704893825344034</v>
+        <v>1.037271579082289</v>
       </c>
       <c r="L25">
-        <v>0.9473718917681804</v>
+        <v>1.040106493825893</v>
       </c>
       <c r="M25">
-        <v>0.9068007252835288</v>
+        <v>1.034198287926408</v>
       </c>
       <c r="N25">
-        <v>0.9527781001911151</v>
+        <v>1.040423524491412</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_142/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_142/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.036645423468762</v>
+        <v>0.9486638270336345</v>
       </c>
       <c r="D2">
-        <v>1.036688405373256</v>
+        <v>0.9760166516043126</v>
       </c>
       <c r="E2">
-        <v>1.040294338750955</v>
+        <v>0.9572322869633935</v>
       </c>
       <c r="F2">
-        <v>1.035334893408444</v>
+        <v>0.922573349331842</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.033236240024902</v>
+        <v>1.024356538488653</v>
       </c>
       <c r="J2">
-        <v>1.041752610746729</v>
+        <v>0.972496452350148</v>
       </c>
       <c r="K2">
-        <v>1.03948143130787</v>
+        <v>0.987820542955232</v>
       </c>
       <c r="L2">
-        <v>1.043077095115534</v>
+        <v>0.9693214480578334</v>
       </c>
       <c r="M2">
-        <v>1.038131794151826</v>
+        <v>0.9352282453397528</v>
       </c>
       <c r="N2">
-        <v>1.043232018944731</v>
+        <v>0.9738775088593873</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.039020264665833</v>
+        <v>0.964579529309164</v>
       </c>
       <c r="D3">
-        <v>1.038463267819327</v>
+        <v>0.9881956779336691</v>
       </c>
       <c r="E3">
-        <v>1.042620401078498</v>
+        <v>0.9724970525954212</v>
       </c>
       <c r="F3">
-        <v>1.038359239604055</v>
+        <v>0.9420932971431621</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.033891104299029</v>
+        <v>1.030016931093662</v>
       </c>
       <c r="J3">
-        <v>1.043764338209669</v>
+        <v>0.9860846832813354</v>
       </c>
       <c r="K3">
-        <v>1.041063389808965</v>
+        <v>0.9989818591297565</v>
       </c>
       <c r="L3">
-        <v>1.045209568271824</v>
+        <v>0.9834943689617603</v>
       </c>
       <c r="M3">
-        <v>1.040959636942425</v>
+        <v>0.9535249472818069</v>
       </c>
       <c r="N3">
-        <v>1.045246603291369</v>
+        <v>0.987485036637089</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.040545882555764</v>
+        <v>0.9741677792294486</v>
       </c>
       <c r="D4">
-        <v>1.039601999471175</v>
+        <v>0.9955325940009333</v>
       </c>
       <c r="E4">
-        <v>1.044114900361303</v>
+        <v>0.9817004615628303</v>
       </c>
       <c r="F4">
-        <v>1.040303805237578</v>
+        <v>0.9538336959728962</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.034308750621779</v>
+        <v>1.03340103785772</v>
       </c>
       <c r="J4">
-        <v>1.045055070990584</v>
+        <v>0.9942561816530108</v>
       </c>
       <c r="K4">
-        <v>1.042076889080467</v>
+        <v>1.005685237404742</v>
       </c>
       <c r="L4">
-        <v>1.046578515052757</v>
+        <v>0.9920248814571023</v>
       </c>
       <c r="M4">
-        <v>1.042776934555341</v>
+        <v>0.9645232056806733</v>
       </c>
       <c r="N4">
-        <v>1.046539169060883</v>
+        <v>0.995668139473736</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.041184667201573</v>
+        <v>0.9780506509488978</v>
       </c>
       <c r="D5">
-        <v>1.040078442291129</v>
+        <v>0.9985032571478604</v>
       </c>
       <c r="E5">
-        <v>1.044740706839957</v>
+        <v>0.9854290293448349</v>
       </c>
       <c r="F5">
-        <v>1.041118419048466</v>
+        <v>0.9585850575323061</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.034482891271994</v>
+        <v>1.034765130462804</v>
       </c>
       <c r="J5">
-        <v>1.045595120305858</v>
+        <v>0.9975617937795901</v>
       </c>
       <c r="K5">
-        <v>1.042500583867387</v>
+        <v>1.008394725523751</v>
       </c>
       <c r="L5">
-        <v>1.047151467530324</v>
+        <v>0.9954774479720285</v>
       </c>
       <c r="M5">
-        <v>1.043538012476241</v>
+        <v>0.9689725243801927</v>
       </c>
       <c r="N5">
-        <v>1.047079985308129</v>
+        <v>0.9989784459486943</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.041291772185177</v>
+        <v>0.9786944712257031</v>
       </c>
       <c r="D6">
-        <v>1.040158306810932</v>
+        <v>0.9989957824550657</v>
       </c>
       <c r="E6">
-        <v>1.044845638769174</v>
+        <v>0.9860473498372256</v>
       </c>
       <c r="F6">
-        <v>1.041255029736353</v>
+        <v>0.9593727412797804</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.034512046545569</v>
+        <v>1.034990934529318</v>
       </c>
       <c r="J6">
-        <v>1.045685647591342</v>
+        <v>0.9981096897160626</v>
       </c>
       <c r="K6">
-        <v>1.042571585817721</v>
+        <v>1.008843680609388</v>
       </c>
       <c r="L6">
-        <v>1.047247520749457</v>
+        <v>0.9960498013462629</v>
       </c>
       <c r="M6">
-        <v>1.043665632226443</v>
+        <v>0.9697100314513554</v>
       </c>
       <c r="N6">
-        <v>1.047170641152742</v>
+        <v>0.9995271199602411</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.040554428101116</v>
+        <v>0.9742202185558423</v>
       </c>
       <c r="D7">
-        <v>1.039608374618814</v>
+        <v>0.9955727162364565</v>
       </c>
       <c r="E7">
-        <v>1.044123272085813</v>
+        <v>0.9817508110724815</v>
       </c>
       <c r="F7">
-        <v>1.040314701358298</v>
+        <v>0.953897874867532</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.034311083119337</v>
+        <v>1.033419485759409</v>
       </c>
       <c r="J7">
-        <v>1.045062297198524</v>
+        <v>0.9943008390326711</v>
       </c>
       <c r="K7">
-        <v>1.04208255980329</v>
+        <v>1.005721850468395</v>
       </c>
       <c r="L7">
-        <v>1.046586180825256</v>
+        <v>0.992071517315637</v>
       </c>
       <c r="M7">
-        <v>1.042787115459999</v>
+        <v>0.9645833116892962</v>
       </c>
       <c r="N7">
-        <v>1.046546405530866</v>
+        <v>0.9957128602719977</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.037450341448225</v>
+        <v>0.9542046773730731</v>
       </c>
       <c r="D8">
-        <v>1.037290270707987</v>
+        <v>0.9802563502310113</v>
       </c>
       <c r="E8">
-        <v>1.041082678206691</v>
+        <v>0.962544786054826</v>
       </c>
       <c r="F8">
-        <v>1.036359601760893</v>
+        <v>0.9293742689446196</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.033458829316469</v>
+        <v>1.02633268162505</v>
       </c>
       <c r="J8">
-        <v>1.042434793038949</v>
+        <v>0.977230170192452</v>
       </c>
       <c r="K8">
-        <v>1.040018187638834</v>
+        <v>0.9917105742901495</v>
       </c>
       <c r="L8">
-        <v>1.043800067923118</v>
+        <v>0.9742572070379296</v>
       </c>
       <c r="M8">
-        <v>1.039090114869248</v>
+        <v>0.9416042510078009</v>
       </c>
       <c r="N8">
-        <v>1.043915170014007</v>
+        <v>0.9786179491239925</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.031892914208762</v>
+        <v>0.9121103236605</v>
       </c>
       <c r="D9">
-        <v>1.033128825304128</v>
+        <v>0.9480746808950835</v>
       </c>
       <c r="E9">
-        <v>1.035640645218081</v>
+        <v>0.9222331884022715</v>
       </c>
       <c r="F9">
-        <v>1.029291476428755</v>
+        <v>0.8775089852577626</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.031909400600137</v>
+        <v>1.011203576809607</v>
       </c>
       <c r="J9">
-        <v>1.037718062338713</v>
+        <v>0.9412000216437112</v>
       </c>
       <c r="K9">
-        <v>1.036300797757999</v>
+        <v>0.9620704090000002</v>
       </c>
       <c r="L9">
-        <v>1.038804395703065</v>
+        <v>0.9367279836840993</v>
       </c>
       <c r="M9">
-        <v>1.032476094703013</v>
+        <v>0.8929603748598106</v>
       </c>
       <c r="N9">
-        <v>1.03919174101516</v>
+        <v>0.9425366336315967</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.028124919526673</v>
+        <v>0.8763477158504782</v>
       </c>
       <c r="D10">
-        <v>1.030299884804251</v>
+        <v>0.9208285438029147</v>
       </c>
       <c r="E10">
-        <v>1.031952093247566</v>
+        <v>0.8880763147207155</v>
       </c>
       <c r="F10">
-        <v>1.02450752621088</v>
+        <v>0.8329336763662142</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030843027905995</v>
+        <v>0.9982046982071464</v>
       </c>
       <c r="J10">
-        <v>1.034511607118213</v>
+        <v>0.9104995757114119</v>
       </c>
       <c r="K10">
-        <v>1.033765973609437</v>
+        <v>0.9367912325278301</v>
       </c>
       <c r="L10">
-        <v>1.035412217133781</v>
+        <v>0.9048103058477979</v>
       </c>
       <c r="M10">
-        <v>1.027994694907158</v>
+        <v>0.851155077052113</v>
       </c>
       <c r="N10">
-        <v>1.03598073226046</v>
+        <v>0.9117925895446831</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.026477443597654</v>
+        <v>0.8576076127578836</v>
       </c>
       <c r="D11">
-        <v>1.029061253280891</v>
+        <v>0.9066059001434792</v>
       </c>
       <c r="E11">
-        <v>1.030339647589795</v>
+        <v>0.8702134385013014</v>
       </c>
       <c r="F11">
-        <v>1.022417728059009</v>
+        <v>0.8093012061793059</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.030373034026487</v>
+        <v>0.9913656231765511</v>
       </c>
       <c r="J11">
-        <v>1.033107646084166</v>
+        <v>0.8943916161688672</v>
       </c>
       <c r="K11">
-        <v>1.032654271977982</v>
+        <v>0.9235337335182824</v>
       </c>
       <c r="L11">
-        <v>1.033927862639007</v>
+        <v>0.8880821640443344</v>
       </c>
       <c r="M11">
-        <v>1.02603592463209</v>
+        <v>0.8290096237402755</v>
       </c>
       <c r="N11">
-        <v>1.034574777440709</v>
+        <v>0.8956617548519792</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.025863025174161</v>
+        <v>0.8499044622814385</v>
       </c>
       <c r="D12">
-        <v>1.028599052780142</v>
+        <v>0.9007729427287694</v>
       </c>
       <c r="E12">
-        <v>1.029738338805551</v>
+        <v>0.8628783341886597</v>
       </c>
       <c r="F12">
-        <v>1.021638622784307</v>
+        <v>0.7995185815174924</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.030197190534821</v>
+        <v>0.9885516002089965</v>
       </c>
       <c r="J12">
-        <v>1.032583744057222</v>
+        <v>0.887767486183096</v>
       </c>
       <c r="K12">
-        <v>1.032239157721607</v>
+        <v>0.9180847190741132</v>
       </c>
       <c r="L12">
-        <v>1.03337410022579</v>
+        <v>0.8812063883688172</v>
       </c>
       <c r="M12">
-        <v>1.025305497808029</v>
+        <v>0.8198487114462534</v>
       </c>
       <c r="N12">
-        <v>1.034050131412795</v>
+        <v>0.8890282178418299</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.025994933244908</v>
+        <v>0.8515969904533088</v>
       </c>
       <c r="D13">
-        <v>1.028698293198765</v>
+        <v>0.9020538446697317</v>
       </c>
       <c r="E13">
-        <v>1.029867430337293</v>
+        <v>0.8644896167241518</v>
       </c>
       <c r="F13">
-        <v>1.02180587477639</v>
+        <v>0.8016717442922024</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030234967342141</v>
+        <v>0.9891699873772585</v>
       </c>
       <c r="J13">
-        <v>1.032696232999175</v>
+        <v>0.8892230608925554</v>
       </c>
       <c r="K13">
-        <v>1.032328300706567</v>
+        <v>0.9192818973825511</v>
       </c>
       <c r="L13">
-        <v>1.033492994304166</v>
+        <v>0.8827170938360511</v>
       </c>
       <c r="M13">
-        <v>1.025462307614007</v>
+        <v>0.8218646741150267</v>
       </c>
       <c r="N13">
-        <v>1.034162780101947</v>
+        <v>0.8904858596343337</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.02642670650191</v>
+        <v>0.8569882710398525</v>
       </c>
       <c r="D14">
-        <v>1.029023091207208</v>
+        <v>0.9061366223579511</v>
       </c>
       <c r="E14">
-        <v>1.030289992127255</v>
+        <v>0.869623525269795</v>
       </c>
       <c r="F14">
-        <v>1.022353385985458</v>
+        <v>0.8085162518998853</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030358524755108</v>
+        <v>0.9911394170501537</v>
       </c>
       <c r="J14">
-        <v>1.033064389738978</v>
+        <v>0.893859085570696</v>
       </c>
       <c r="K14">
-        <v>1.032620003300524</v>
+        <v>0.9230955995410295</v>
       </c>
       <c r="L14">
-        <v>1.033882138013108</v>
+        <v>0.8875293313434149</v>
       </c>
       <c r="M14">
-        <v>1.025975606120523</v>
+        <v>0.8282744052204504</v>
       </c>
       <c r="N14">
-        <v>1.03453145966655</v>
+        <v>0.8951284679992766</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.026692406124531</v>
+        <v>0.8602004676327814</v>
       </c>
       <c r="D15">
-        <v>1.029222927490947</v>
+        <v>0.9085710740518986</v>
       </c>
       <c r="E15">
-        <v>1.030550029317333</v>
+        <v>0.8726833989001991</v>
       </c>
       <c r="F15">
-        <v>1.022690343251967</v>
+        <v>0.81258450502266</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030434483843625</v>
+        <v>0.9923125280101958</v>
       </c>
       <c r="J15">
-        <v>1.03329090190617</v>
+        <v>0.8966209253934495</v>
       </c>
       <c r="K15">
-        <v>1.032799440380375</v>
+        <v>0.9253680033530859</v>
       </c>
       <c r="L15">
-        <v>1.034121581041938</v>
+        <v>0.8903966003929508</v>
       </c>
       <c r="M15">
-        <v>1.026291485157247</v>
+        <v>0.8320851549493075</v>
       </c>
       <c r="N15">
-        <v>1.034758293507</v>
+        <v>0.8978942299513658</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.0282339149109</v>
+        <v>0.8775054649288788</v>
       </c>
       <c r="D16">
-        <v>1.030381795180968</v>
+        <v>0.921708592998371</v>
       </c>
       <c r="E16">
-        <v>1.032058777340229</v>
+        <v>0.8891806970141385</v>
       </c>
       <c r="F16">
-        <v>1.024645824061635</v>
+        <v>0.8343866753107763</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030874043735988</v>
+        <v>0.9986267679372061</v>
       </c>
       <c r="J16">
-        <v>1.034604449694778</v>
+        <v>0.9114943305393639</v>
       </c>
       <c r="K16">
-        <v>1.033839451345219</v>
+        <v>0.9376102006072425</v>
       </c>
       <c r="L16">
-        <v>1.035510395488268</v>
+        <v>0.9058437560790862</v>
       </c>
       <c r="M16">
-        <v>1.028124297799901</v>
+        <v>0.8525172134140666</v>
       </c>
       <c r="N16">
-        <v>1.036073706684134</v>
+        <v>0.9127887570385907</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.029196545840754</v>
+        <v>0.8873626860462663</v>
       </c>
       <c r="D17">
-        <v>1.031105015993786</v>
+        <v>0.9292073671601532</v>
       </c>
       <c r="E17">
-        <v>1.033001029371601</v>
+        <v>0.8985873649673262</v>
       </c>
       <c r="F17">
-        <v>1.025867465461939</v>
+        <v>0.8467281658588243</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031147540610749</v>
+        <v>1.002217552755218</v>
       </c>
       <c r="J17">
-        <v>1.035424190849806</v>
+        <v>0.9199616967339683</v>
       </c>
       <c r="K17">
-        <v>1.034488004656033</v>
+        <v>0.9445819869289878</v>
       </c>
       <c r="L17">
-        <v>1.036377354583811</v>
+        <v>0.9146424379127519</v>
       </c>
       <c r="M17">
-        <v>1.029269002391709</v>
+        <v>0.8640889666244556</v>
       </c>
       <c r="N17">
-        <v>1.036894611965627</v>
+        <v>0.9212681478644121</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.029756502819998</v>
+        <v>0.8928207019426895</v>
       </c>
       <c r="D18">
-        <v>1.031525542656419</v>
+        <v>0.93336379251513</v>
       </c>
       <c r="E18">
-        <v>1.033549160363076</v>
+        <v>0.903798811043295</v>
       </c>
       <c r="F18">
-        <v>1.026578268516091</v>
+        <v>0.8535403659382885</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.031306272861843</v>
+        <v>1.004203353647616</v>
       </c>
       <c r="J18">
-        <v>1.035900837176976</v>
+        <v>0.9246483796076582</v>
       </c>
       <c r="K18">
-        <v>1.034864937898271</v>
+        <v>0.9484412316824691</v>
       </c>
       <c r="L18">
-        <v>1.036881545020283</v>
+        <v>0.9195140346036603</v>
       </c>
       <c r="M18">
-        <v>1.0299349311986</v>
+        <v>0.8704775984566634</v>
       </c>
       <c r="N18">
-        <v>1.037371935185254</v>
+        <v>0.9259614863653528</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.029947176735989</v>
+        <v>0.8946372636541744</v>
       </c>
       <c r="D19">
-        <v>1.031668710055397</v>
+        <v>0.9347477888982533</v>
       </c>
       <c r="E19">
-        <v>1.033735812124473</v>
+        <v>0.9055337617880842</v>
       </c>
       <c r="F19">
-        <v>1.026820338783601</v>
+        <v>0.8558044688804883</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.03136026263661</v>
+        <v>1.004863837779441</v>
       </c>
       <c r="J19">
-        <v>1.036063109891777</v>
+        <v>0.926207919794966</v>
       </c>
       <c r="K19">
-        <v>1.03499323401338</v>
+        <v>0.9497254597366701</v>
       </c>
       <c r="L19">
-        <v>1.037053210096887</v>
+        <v>0.921135355350522</v>
       </c>
       <c r="M19">
-        <v>1.030161700626133</v>
+        <v>0.8726010896977054</v>
       </c>
       <c r="N19">
-        <v>1.037534438345923</v>
+        <v>0.9275232412786081</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C20">
-        <v>1.029093423429009</v>
+        <v>0.8863365090196018</v>
       </c>
       <c r="D20">
-        <v>1.031027557788461</v>
+        <v>0.9284262367894121</v>
       </c>
       <c r="E20">
-        <v>1.032900087124858</v>
+        <v>0.8976077759728484</v>
       </c>
       <c r="F20">
-        <v>1.025736577697579</v>
+        <v>0.8454457400628529</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031118279294255</v>
+        <v>1.001843988716892</v>
       </c>
       <c r="J20">
-        <v>1.035336395519551</v>
+        <v>0.919080393849471</v>
       </c>
       <c r="K20">
-        <v>1.034418561802679</v>
+        <v>0.943856299766075</v>
       </c>
       <c r="L20">
-        <v>1.036284492956282</v>
+        <v>0.9137264866273495</v>
       </c>
       <c r="M20">
-        <v>1.029146369003636</v>
+        <v>0.8628863728148656</v>
       </c>
       <c r="N20">
-        <v>1.036806691955933</v>
+        <v>0.9203855934287317</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.026299628964464</v>
+        <v>0.8554243073184217</v>
       </c>
       <c r="D21">
-        <v>1.028927505252086</v>
+        <v>0.9049518319056939</v>
       </c>
       <c r="E21">
-        <v>1.030165624411772</v>
+        <v>0.8681340007175323</v>
       </c>
       <c r="F21">
-        <v>1.022192237456771</v>
+        <v>0.8065328781359076</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030322175374072</v>
+        <v>0.9905681626044598</v>
       </c>
       <c r="J21">
-        <v>1.032956043833949</v>
+        <v>0.8925142921647282</v>
       </c>
       <c r="K21">
-        <v>1.032534164787485</v>
+        <v>0.9219892398741418</v>
       </c>
       <c r="L21">
-        <v>1.03376761195321</v>
+        <v>0.8861333253232787</v>
       </c>
       <c r="M21">
-        <v>1.025824532089398</v>
+        <v>0.8264168135879038</v>
       </c>
       <c r="N21">
-        <v>1.034422959897908</v>
+        <v>0.8937817648324222</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.024528711956718</v>
+        <v>0.8313378922513012</v>
       </c>
       <c r="D22">
-        <v>1.02759483510967</v>
+        <v>0.8867498089849619</v>
       </c>
       <c r="E22">
-        <v>1.02843257924392</v>
+        <v>0.8452172538674952</v>
       </c>
       <c r="F22">
-        <v>1.01994715973884</v>
+        <v>0.7757468456852584</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.02981428940944</v>
+        <v>0.98176634193264</v>
       </c>
       <c r="J22">
-        <v>1.031445450503807</v>
+        <v>0.8717960823406391</v>
       </c>
       <c r="K22">
-        <v>1.031336733257657</v>
+        <v>0.9049564961743689</v>
       </c>
       <c r="L22">
-        <v>1.032171183561837</v>
+        <v>0.8646360656729243</v>
       </c>
       <c r="M22">
-        <v>1.023719405223801</v>
+        <v>0.7976074037410074</v>
       </c>
       <c r="N22">
-        <v>1.032910221351969</v>
+        <v>0.8730341327739711</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.025468896609652</v>
+        <v>0.8447088007234514</v>
       </c>
       <c r="D23">
-        <v>1.028302494295541</v>
+        <v>0.8968434554092121</v>
       </c>
       <c r="E23">
-        <v>1.029352632482194</v>
+        <v>0.8579334218449336</v>
       </c>
       <c r="F23">
-        <v>1.021138929694556</v>
+        <v>0.7928951115990115</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03008423494428</v>
+        <v>0.9866530526877255</v>
       </c>
       <c r="J23">
-        <v>1.032247593845893</v>
+        <v>0.8832987952158348</v>
       </c>
       <c r="K23">
-        <v>1.031972732432392</v>
+        <v>0.9144100076471593</v>
       </c>
       <c r="L23">
-        <v>1.033018829970796</v>
+        <v>0.8765690192332842</v>
       </c>
       <c r="M23">
-        <v>1.024836977529632</v>
+        <v>0.8136486651470214</v>
       </c>
       <c r="N23">
-        <v>1.033713503829609</v>
+        <v>0.884553180820829</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.049999999999999</v>
       </c>
       <c r="C24">
-        <v>1.029140024729226</v>
+        <v>0.8868010794649536</v>
       </c>
       <c r="D24">
-        <v>1.031062561879764</v>
+        <v>0.9287798565335859</v>
       </c>
       <c r="E24">
-        <v>1.032945703115043</v>
+        <v>0.8980512460554425</v>
       </c>
       <c r="F24">
-        <v>1.025795725675636</v>
+        <v>0.8460263853230139</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031131503675116</v>
+        <v>1.002013116263628</v>
       </c>
       <c r="J24">
-        <v>1.035376071065173</v>
+        <v>0.9194793824994486</v>
       </c>
       <c r="K24">
-        <v>1.034449944228636</v>
+        <v>0.9441848361087429</v>
       </c>
       <c r="L24">
-        <v>1.036326457735144</v>
+        <v>0.9141411567083597</v>
       </c>
       <c r="M24">
-        <v>1.029201787179448</v>
+        <v>0.8634308685134325</v>
       </c>
       <c r="N24">
-        <v>1.036846423845381</v>
+        <v>0.9207851486883573</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.033340445323225</v>
+        <v>0.9240419595939058</v>
       </c>
       <c r="D25">
-        <v>1.034214057275931</v>
+        <v>0.9571879995454027</v>
       </c>
       <c r="E25">
-        <v>1.037057912563369</v>
+        <v>0.9336481088976782</v>
       </c>
       <c r="F25">
-        <v>1.031131012683623</v>
+        <v>0.8922628618948688</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.032315751917771</v>
+        <v>1.015515907750178</v>
       </c>
       <c r="J25">
-        <v>1.038948099021789</v>
+        <v>0.9514269647709453</v>
       </c>
       <c r="K25">
-        <v>1.037271579082289</v>
+        <v>0.9704893825344062</v>
       </c>
       <c r="L25">
-        <v>1.040106493825893</v>
+        <v>0.9473718917681838</v>
       </c>
       <c r="M25">
-        <v>1.034198287926408</v>
+        <v>0.9068007252835319</v>
       </c>
       <c r="N25">
-        <v>1.040423524491412</v>
+        <v>0.9527781001911183</v>
       </c>
     </row>
   </sheetData>
